--- a/utils/localisation_script/excel_to_json/as/Assamese - Suno-India DELTA.xlsx
+++ b/utils/localisation_script/excel_to_json/as/Assamese - Suno-India DELTA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/as/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9083CA4-4600-6241-9146-7F5E41489597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta" sheetId="8" r:id="rId1"/>
@@ -220,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -630,109 +636,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A2:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="26" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="7"/>
+    <col min="3" max="3" width="26.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+    <row r="2" spans="1:26" ht="14">
+      <c r="A2" s="6"/>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" ht="25.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -755,18 +729,18 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="15">
+    <row r="4" spans="1:26" ht="14">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="12" t="s">
-        <v>47</v>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -792,13 +766,15 @@
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -821,12 +797,17 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="8"/>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -851,16 +832,9 @@
     <row r="7" spans="1:26">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -882,16 +856,18 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -914,16 +890,16 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -946,18 +922,16 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="25.5">
+    <row r="10" spans="1:26" ht="14">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>49</v>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -980,18 +954,18 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="25.5">
+    <row r="11" spans="1:26" ht="28">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1014,18 +988,18 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="25.5">
+    <row r="12" spans="1:26" ht="28">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1048,18 +1022,18 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="25.5">
+    <row r="13" spans="1:26" ht="28">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1082,16 +1056,18 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="15">
+    <row r="14" spans="1:26" ht="28">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12" t="s">
-        <v>53</v>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1114,18 +1090,16 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>54</v>
+      <c r="F15" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1148,13 +1122,19 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1176,19 +1156,13 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="25.5">
+    <row r="17" spans="1:26">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1210,16 +1184,18 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="28">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1242,13 +1218,17 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15">
+    <row r="19" spans="1:26" ht="14">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1270,19 +1250,13 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1304,16 +1278,18 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="14">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1336,12 +1312,17 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="14">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="8"/>
+      <c r="F22" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1365,19 +1346,10 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1399,13 +1371,21 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="14">
       <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1430,18 +1410,10 @@
     <row r="25" spans="1:26">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1463,18 +1435,20 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="14">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>58</v>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1497,13 +1471,19 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1525,21 +1505,13 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="25.5">
+    <row r="28" spans="1:26">
       <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1561,18 +1533,20 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="25.5">
+    <row r="29" spans="1:26" ht="28">
       <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3" t="s">
-        <v>38</v>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>62</v>
+      <c r="D29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -1595,18 +1569,18 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="28">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>40</v>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
       </c>
-      <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1629,13 +1603,19 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="14">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1657,19 +1637,13 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="25.5">
+    <row r="32" spans="1:26">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1691,13 +1665,19 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="28">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -28824,32 +28804,32 @@
       <c r="Z1001" s="8"/>
     </row>
     <row r="1002" spans="1:26">
-      <c r="A1002" s="9"/>
-      <c r="B1002" s="9"/>
-      <c r="C1002" s="9"/>
-      <c r="D1002" s="9"/>
-      <c r="E1002" s="9"/>
-      <c r="F1002" s="9"/>
-      <c r="G1002" s="9"/>
-      <c r="H1002" s="9"/>
-      <c r="I1002" s="9"/>
-      <c r="J1002" s="9"/>
-      <c r="K1002" s="9"/>
-      <c r="L1002" s="9"/>
-      <c r="M1002" s="9"/>
-      <c r="N1002" s="9"/>
-      <c r="O1002" s="9"/>
-      <c r="P1002" s="9"/>
-      <c r="Q1002" s="9"/>
-      <c r="R1002" s="9"/>
-      <c r="S1002" s="9"/>
-      <c r="T1002" s="9"/>
-      <c r="U1002" s="9"/>
-      <c r="V1002" s="9"/>
-      <c r="W1002" s="9"/>
-      <c r="X1002" s="9"/>
-      <c r="Y1002" s="9"/>
-      <c r="Z1002" s="9"/>
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="8"/>
+      <c r="C1002" s="8"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="8"/>
+      <c r="F1002" s="8"/>
+      <c r="G1002" s="8"/>
+      <c r="H1002" s="8"/>
+      <c r="I1002" s="8"/>
+      <c r="J1002" s="8"/>
+      <c r="K1002" s="8"/>
+      <c r="L1002" s="8"/>
+      <c r="M1002" s="8"/>
+      <c r="N1002" s="8"/>
+      <c r="O1002" s="8"/>
+      <c r="P1002" s="8"/>
+      <c r="Q1002" s="8"/>
+      <c r="R1002" s="8"/>
+      <c r="S1002" s="8"/>
+      <c r="T1002" s="8"/>
+      <c r="U1002" s="8"/>
+      <c r="V1002" s="8"/>
+      <c r="W1002" s="8"/>
+      <c r="X1002" s="8"/>
+      <c r="Y1002" s="8"/>
+      <c r="Z1002" s="8"/>
     </row>
     <row r="1003" spans="1:26">
       <c r="A1003" s="9"/>
@@ -29047,9 +29027,37 @@
       <c r="Y1009" s="9"/>
       <c r="Z1009" s="9"/>
     </row>
+    <row r="1010" spans="1:26">
+      <c r="A1010" s="9"/>
+      <c r="B1010" s="9"/>
+      <c r="C1010" s="9"/>
+      <c r="D1010" s="9"/>
+      <c r="E1010" s="9"/>
+      <c r="F1010" s="9"/>
+      <c r="G1010" s="9"/>
+      <c r="H1010" s="9"/>
+      <c r="I1010" s="9"/>
+      <c r="J1010" s="9"/>
+      <c r="K1010" s="9"/>
+      <c r="L1010" s="9"/>
+      <c r="M1010" s="9"/>
+      <c r="N1010" s="9"/>
+      <c r="O1010" s="9"/>
+      <c r="P1010" s="9"/>
+      <c r="Q1010" s="9"/>
+      <c r="R1010" s="9"/>
+      <c r="S1010" s="9"/>
+      <c r="T1010" s="9"/>
+      <c r="U1010" s="9"/>
+      <c r="V1010" s="9"/>
+      <c r="W1010" s="9"/>
+      <c r="X1010" s="9"/>
+      <c r="Y1010" s="9"/>
+      <c r="Z1010" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
